--- a/tryingAmerican/2015-1-12.xlsx
+++ b/tryingAmerican/2015-1-12.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="3" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t xml:space="preserve">Estid Daughter Option price: 7.68412 5.53391 4.57151 4.27695 4.26012 </t>
   </si>
@@ -64,13 +65,55 @@
   <si>
     <t xml:space="preserve">Estid Daughter Option price: </t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>time step</t>
+  </si>
+  <si>
+    <t>RMSD</t>
+  </si>
+  <si>
+    <t>time spent</t>
+  </si>
+  <si>
+    <t>Daughter</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>record date</t>
+  </si>
+  <si>
+    <t>benchm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,12 +137,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,9 +477,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2">
+        <v>42017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3">
+        <v>90</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>110</v>
+      </c>
+      <c r="F7" s="3">
+        <v>120</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20.156110935495899</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10.996450101614</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.6918586420206001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.6164755188527602</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.44294857205604</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SQRT(0.2*SUM(K8:O8))</f>
+        <v>9.8363451255696219E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>188.75</v>
+      </c>
+      <c r="K8" s="5">
+        <f>((B8-B$14)/B$14)^2</f>
+        <v>6.1953560235312698E-5</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ref="L8:O8" si="0">((C8-C$14)/C$14)^2</f>
+        <v>1.7313262885578613E-6</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1131091495142848E-2</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4534347519148464E-5</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7157531985472758E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>19.861306123434201</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11.179404404956699</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.1285202237821297</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.3690579912904401</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.99749061188211796</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" ref="G9:G10" si="1">SQRT(0.2*SUM(K9:O9))</f>
+        <v>0.10242833402458679</v>
+      </c>
+      <c r="H9" s="4">
+        <v>506.75</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" ref="K9:K12" si="2">((B9-B$14)/B$14)^2</f>
+        <v>4.7198828942792498E-5</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" ref="L9:L12" si="3">((C9-C$14)/C$14)^2</f>
+        <v>3.2311029823697493E-4</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" ref="M9:M12" si="4">((D9-D$14)/D$14)^2</f>
+        <v>4.3331010965773414E-3</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" ref="N9:N12" si="5">((E9-E$14)/E$14)^2</f>
+        <v>9.8101516787936563E-3</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" ref="O9:O12" si="6">((F9-F$14)/F$14)^2</f>
+        <v>3.7944256152710847E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>19.8629049214132</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10.6141458972323</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.5445091536047801</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.6185844587852101</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.2606866921931399</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7868521606485558E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1587.7339999999999</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="2"/>
+        <v>4.6106752103959897E-5</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="3"/>
+        <v>1.121988303860725E-3</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="4"/>
+        <v>9.8946861493325215E-5</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7232337716591475E-5</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="6"/>
+        <v>3.1214606683260441E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="K11" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="K12" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>19.998699999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10.981999999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5.4898999999999996</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.6295000000000002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.2387999999999999</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>110</v>
+      </c>
+      <c r="F17" s="3">
+        <v>120</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-6.0885909249641701</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-2.7872627942457999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.26977454438350001</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.6413625987101099</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.4444880748730999</v>
+      </c>
+      <c r="G18" s="6">
+        <f>SQRT(0.2*SUM(K18:O18))</f>
+        <v>25.969838523703135</v>
+      </c>
+      <c r="H18" s="4">
+        <v>188.75</v>
+      </c>
+      <c r="K18" s="5">
+        <f>((B18-B$24)/B$24)^2</f>
+        <v>3340.4420167587054</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" ref="L18:O18" si="7">((C18-C$24)/C$24)^2</f>
+        <v>30.859083432136611</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.68437053569691597</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12216245331338807</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="7"/>
+        <v>5.4931556225206075E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.6359419673860396</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3.37159105472118</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.2546027666096302</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3.4942403237927899</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3.8399722075588798</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ref="G19:G20" si="8">SQRT(0.2*SUM(K19:O19))</f>
+        <v>19.007397742962034</v>
+      </c>
+      <c r="H19" s="4">
+        <v>506.75</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" ref="K19:K23" si="9">((B19-B$24)/B$24)^2</f>
+        <v>1784.7014757570221</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" ref="L19:L23" si="10">((C19-C$24)/C$24)^2</f>
+        <v>20.340425109298845</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" ref="M19:M23" si="11">((D19-D$24)/D$24)^2</f>
+        <v>1.1747944422745769</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" ref="N19:N23" si="12">((E19-E$24)/E$24)^2</f>
+        <v>0.14806325772478784</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" ref="O19:O23" si="13">((F19-F$24)/F$24)^2</f>
+        <v>4.1086229470752952E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.9430109600893103E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.555578254148276</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.47179483214708</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.40533361547081</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.0632351796027502</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="8"/>
+        <v>0.16719019348643427</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1587.7339999999999</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="9"/>
+        <v>0.12413718088317863</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="10"/>
+        <v>8.4721046303555762E-3</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="11"/>
+        <v>3.32111607984542E-3</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="12"/>
+        <v>2.1856406685661078E-3</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="13"/>
+        <v>1.6467617282108983E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="K21" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="K22" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="K23" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.1072</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.6119</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.5618000000000001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.5232999999999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3.1928000000000001</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -552,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X50"/>
   <sheetViews>

--- a/tryingAmerican/2015-1-12.xlsx
+++ b/tryingAmerican/2015-1-12.xlsx
@@ -97,6 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,14 +168,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,13 +484,15 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -572,22 +578,22 @@
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>20.156110935495899</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>10.996450101614</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>4.6918586420206001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>2.6164755188527602</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>1.44294857205604</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <f>SQRT(0.2*SUM(K8:O8))</f>
         <v>9.8363451255696219E-2</v>
       </c>
@@ -619,23 +625,23 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>19.861306123434201</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>11.179404404956699</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>5.1285202237821297</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>2.3690579912904401</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>0.99749061188211796</v>
       </c>
-      <c r="G9" s="6">
-        <f t="shared" ref="G9:G10" si="1">SQRT(0.2*SUM(K9:O9))</f>
+      <c r="G9" s="7">
+        <f t="shared" ref="G9:G11" si="1">SQRT(0.2*SUM(K9:O9))</f>
         <v>0.10242833402458679</v>
       </c>
       <c r="H9" s="4">
@@ -666,22 +672,22 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>19.8629049214132</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>10.6141458972323</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>5.5445091536047801</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>2.6185844587852101</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>1.2606866921931399</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <f t="shared" si="1"/>
         <v>1.7868521606485558E-2</v>
       </c>
@@ -713,44 +719,59 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="6">
+        <v>20.0284149341161</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10.9255241845361</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5.5318753351538001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.6290960532929</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.25806354698319</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>8.1110448968388302E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5798.2030000000004</v>
+      </c>
       <c r="K11" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.207730269417813E-6</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.6446130839491819E-5</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5.8460089709980661E-5</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2.3599445245446515E-8</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2.4180769632854037E-4</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="3"/>
       <c r="K12" s="5">
         <f t="shared" si="2"/>
@@ -777,34 +798,34 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>19.998699999999999</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>10.981999999999999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>5.4898999999999996</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>2.6295000000000002</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>1.2387999999999999</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -837,22 +858,22 @@
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>-6.0885909249641701</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>-2.7872627942457999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>0.26977454438350001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="6">
         <v>1.6413625987101099</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <v>2.4444880748730999</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <f>SQRT(0.2*SUM(K18:O18))</f>
         <v>25.969838523703135</v>
       </c>
@@ -884,23 +905,23 @@
       <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>4.6359419673860396</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>3.37159105472118</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>3.2546027666096302</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>3.4942403237927899</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="6">
         <v>3.8399722075588798</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" ref="G19:G20" si="8">SQRT(0.2*SUM(K19:O19))</f>
+      <c r="G19" s="7">
+        <f t="shared" ref="G19:G21" si="8">SQRT(0.2*SUM(K19:O19))</f>
         <v>19.007397742962034</v>
       </c>
       <c r="H19" s="4">
@@ -931,22 +952,22 @@
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>6.9430109600893103E-2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>0.555578254148276</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>1.47179483214708</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>2.40533361547081</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>3.0632351796027502</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <f t="shared" si="8"/>
         <v>0.16719019348643427</v>
       </c>
@@ -978,44 +999,59 @@
       <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="B21" s="6">
+        <v>0.105811790323906</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.55484458141933402</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1.3667324235218801</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.4156734220249998</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3.0614458387465699</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="8"/>
+        <v>7.4797886978733755E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5798.2030000000004</v>
+      </c>
       <c r="K21" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6769517368854883E-4</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>8.6942652413011245E-3</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>1.5599811107199695E-2</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>1.8192873028704812E-3</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.6925606573572919E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>5</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="3"/>
       <c r="K22" s="5">
         <f t="shared" si="9"/>
@@ -1042,12 +1078,12 @@
       <c r="A23" s="3">
         <v>6</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="3"/>
       <c r="K23" s="5">
         <f t="shared" si="9"/>
@@ -1074,22 +1110,22 @@
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>0.1072</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>0.6119</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="6">
         <v>1.5618000000000001</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="6">
         <v>2.5232999999999999</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="6">
         <v>3.1928000000000001</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="3"/>
     </row>
   </sheetData>
